--- a/SAYO_T_formatted.xlsx
+++ b/SAYO_T_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckennaquam/Desktop/DS4200/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckennaquam/Desktop/DS4200/DS4200_BtC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B842414-3054-8F4D-9223-23E46E4CF2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B6025F-2684-1E49-BFAD-AC7C4EBECDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{414107E0-743D-C14F-8B60-FEBB8C342876}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{414107E0-743D-C14F-8B60-FEBB8C342876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,22 +44,10 @@
     <t>Critical Thinking</t>
   </si>
   <si>
-    <t>Peers</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
     <t>Perseverance</t>
   </si>
   <si>
     <t>Self Regulation</t>
-  </si>
-  <si>
-    <t>English Language Skills (Combined)</t>
-  </si>
-  <si>
-    <t>Math Skills (Combined)</t>
   </si>
   <si>
     <t>Pre_Test</t>
@@ -68,7 +56,19 @@
     <t>Post_Test</t>
   </si>
   <si>
-    <t>Category _Avg</t>
+    <t>Category_Avg</t>
+  </si>
+  <si>
+    <t>Interacting with Adults</t>
+  </si>
+  <si>
+    <t>Interacting with Peers</t>
+  </si>
+  <si>
+    <t>English Language Skills</t>
+  </si>
+  <si>
+    <t>Math Skills</t>
   </si>
 </sst>
 </file>
@@ -422,24 +422,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C68E29E-89A3-864A-A87B-7ACA5787C56B}">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="F474" sqref="F474"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -450,7 +452,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -461,7 +463,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -472,7 +474,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -483,7 +485,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -494,7 +496,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3.6666666666666701</v>
@@ -505,7 +507,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -516,7 +518,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -527,7 +529,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -538,7 +540,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -549,7 +551,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -560,7 +562,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -571,7 +573,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -582,7 +584,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2.8333333333333299</v>
@@ -593,7 +595,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>2.5</v>
@@ -604,7 +606,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -615,7 +617,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2.1666666666666701</v>
@@ -626,7 +628,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -637,7 +639,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>4.1666666666666696</v>
@@ -648,7 +650,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>4.1666666666666696</v>
@@ -659,7 +661,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -670,7 +672,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -681,7 +683,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -692,7 +694,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -703,7 +705,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>3.3333333333333299</v>
@@ -714,7 +716,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -725,7 +727,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>4.1666666666666696</v>
@@ -736,7 +738,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>4.1666666666666696</v>
@@ -747,7 +749,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>2.5</v>
@@ -758,7 +760,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>4.1666666666666696</v>
@@ -769,7 +771,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>3.1666666666666701</v>
@@ -780,7 +782,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>3.3333333333333299</v>
@@ -791,7 +793,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>4.1666666666666696</v>
@@ -802,7 +804,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -813,7 +815,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -824,7 +826,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>4.1666666666666696</v>
@@ -835,7 +837,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>4.1666666666666696</v>
@@ -846,7 +848,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>4.1666666666666696</v>
@@ -857,7 +859,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>3.3333333333333299</v>
@@ -868,7 +870,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -879,7 +881,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>4.1666666666666696</v>
@@ -890,7 +892,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>3.8333333333333299</v>
@@ -901,7 +903,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>4.1666666666666696</v>
@@ -912,7 +914,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>3.8333333333333299</v>
@@ -923,7 +925,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>4.3333333333333304</v>
@@ -934,7 +936,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>4.1666666666666696</v>
@@ -945,7 +947,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>3.3333333333333299</v>
@@ -956,7 +958,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>4.1666666666666696</v>
@@ -967,7 +969,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>2.1666666666666701</v>
@@ -978,7 +980,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>4.1666666666666696</v>
@@ -989,7 +991,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>3.3333333333333299</v>
@@ -1000,7 +1002,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>4.1666666666666696</v>
@@ -1011,7 +1013,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>4.1666666666666696</v>
@@ -1022,7 +1024,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>4.3333333333333304</v>
@@ -1033,7 +1035,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>2.5</v>
@@ -1044,7 +1046,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>2.3333333333333299</v>
@@ -1055,7 +1057,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>2.1666666666666701</v>
@@ -1066,7 +1068,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>3.3333333333333299</v>
@@ -1077,7 +1079,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>2.3333333333333299</v>
@@ -1088,7 +1090,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>3.8333333333333299</v>
@@ -1099,7 +1101,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>4.1666666666666696</v>
@@ -1110,7 +1112,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>4.1666666666666696</v>
@@ -1121,7 +1123,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>2.1666666666666701</v>
@@ -1132,7 +1134,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1143,7 +1145,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>4.1666666666666696</v>
@@ -1154,7 +1156,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>4.1666666666666696</v>
@@ -2617,7 +2619,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -2628,7 +2630,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -2639,7 +2641,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -2650,7 +2652,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -2661,7 +2663,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -2672,7 +2674,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B205">
         <v>4</v>
@@ -2683,7 +2685,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -2694,7 +2696,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B207">
         <v>4</v>
@@ -2705,7 +2707,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -2716,7 +2718,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -2727,7 +2729,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -2738,7 +2740,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B211">
         <v>3.4</v>
@@ -2749,7 +2751,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -2760,7 +2762,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B213">
         <v>2.6</v>
@@ -2771,7 +2773,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B214">
         <v>2.4</v>
@@ -2782,7 +2784,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -2793,7 +2795,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B216">
         <v>2.2000000000000002</v>
@@ -2804,7 +2806,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B217">
         <v>2.8</v>
@@ -2815,7 +2817,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B218">
         <v>4</v>
@@ -2826,7 +2828,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B219">
         <v>4.8</v>
@@ -2837,7 +2839,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B220">
         <v>4</v>
@@ -2848,7 +2850,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B221">
         <v>4.5999999999999996</v>
@@ -2859,7 +2861,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -2870,7 +2872,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -2881,7 +2883,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B224">
         <v>3.8</v>
@@ -2892,7 +2894,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -2903,7 +2905,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -2914,7 +2916,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B227">
         <v>4</v>
@@ -2925,7 +2927,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B228">
         <v>3.8</v>
@@ -2936,7 +2938,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B229">
         <v>5</v>
@@ -2947,7 +2949,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B230">
         <v>4</v>
@@ -2958,7 +2960,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B231">
         <v>4.2</v>
@@ -2969,7 +2971,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B232">
         <v>4.5999999999999996</v>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B233">
         <v>5</v>
@@ -2991,7 +2993,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -3002,7 +3004,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B235">
         <v>4.5999999999999996</v>
@@ -3013,7 +3015,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B236">
         <v>4.5999999999999996</v>
@@ -3024,7 +3026,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B237">
         <v>4.5999999999999996</v>
@@ -3035,7 +3037,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B238">
         <v>4.2</v>
@@ -3046,7 +3048,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -3057,7 +3059,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B240">
         <v>4.4000000000000004</v>
@@ -3068,7 +3070,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -3079,7 +3081,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -3090,7 +3092,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B243">
         <v>5</v>
@@ -3101,7 +3103,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -3112,7 +3114,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B245">
         <v>4</v>
@@ -3123,7 +3125,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B246">
         <v>4.2</v>
@@ -3134,7 +3136,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -3145,7 +3147,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -3156,7 +3158,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B249">
         <v>4</v>
@@ -3167,7 +3169,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B250">
         <v>5</v>
@@ -3178,7 +3180,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B251">
         <v>4</v>
@@ -3189,7 +3191,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B252">
         <v>5</v>
@@ -3200,7 +3202,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B253">
         <v>5</v>
@@ -3211,7 +3213,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B254">
         <v>2.4</v>
@@ -3222,7 +3224,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B255">
         <v>2.2000000000000002</v>
@@ -3233,7 +3235,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -3244,7 +3246,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B257">
         <v>5</v>
@@ -3255,7 +3257,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B258">
         <v>2.2000000000000002</v>
@@ -3266,7 +3268,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B259">
         <v>3.6</v>
@@ -3277,7 +3279,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -3288,7 +3290,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B261">
         <v>5</v>
@@ -3299,7 +3301,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B262">
         <v>2.4</v>
@@ -3310,7 +3312,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B263">
         <v>2.2000000000000002</v>
@@ -3321,7 +3323,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B264">
         <v>4</v>
@@ -3332,7 +3334,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B265">
         <v>4</v>
@@ -3343,7 +3345,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B266">
         <v>4</v>
@@ -3354,7 +3356,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -3365,7 +3367,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -3376,7 +3378,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -3387,7 +3389,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -3398,7 +3400,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B271">
         <v>4</v>
@@ -3409,7 +3411,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -3420,7 +3422,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B273">
         <v>4</v>
@@ -3431,7 +3433,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -3442,7 +3444,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -3453,7 +3455,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B276">
         <v>4</v>
@@ -3464,7 +3466,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B277">
         <v>3.6666666666666701</v>
@@ -3475,7 +3477,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -3486,7 +3488,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B279">
         <v>3.1666666666666701</v>
@@ -3497,7 +3499,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B280">
         <v>2.5</v>
@@ -3508,7 +3510,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B281">
         <v>2.1666666666666701</v>
@@ -3519,7 +3521,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -3530,7 +3532,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B283">
         <v>3.1666666666666701</v>
@@ -3541,7 +3543,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B284">
         <v>4</v>
@@ -3552,7 +3554,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B285">
         <v>4</v>
@@ -3563,7 +3565,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B286">
         <v>4</v>
@@ -3574,7 +3576,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B287">
         <v>4</v>
@@ -3585,7 +3587,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B288">
         <v>4</v>
@@ -3596,7 +3598,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B289">
         <v>5</v>
@@ -3607,7 +3609,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B290">
         <v>4</v>
@@ -3618,7 +3620,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B291">
         <v>5</v>
@@ -3629,7 +3631,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B292">
         <v>4</v>
@@ -3640,7 +3642,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B293">
         <v>4</v>
@@ -3651,7 +3653,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -3662,7 +3664,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B295">
         <v>5</v>
@@ -3673,7 +3675,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -3684,7 +3686,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -3695,7 +3697,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B298">
         <v>4</v>
@@ -3706,7 +3708,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B299">
         <v>5</v>
@@ -3717,7 +3719,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B300">
         <v>5</v>
@@ -3728,7 +3730,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B301">
         <v>4</v>
@@ -3739,7 +3741,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302">
         <v>4</v>
@@ -3750,7 +3752,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B303">
         <v>4</v>
@@ -3761,7 +3763,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -3772,7 +3774,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B305">
         <v>5</v>
@@ -3783,7 +3785,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B306">
         <v>3</v>
@@ -3794,7 +3796,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B307">
         <v>3.3333333333333299</v>
@@ -3805,7 +3807,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B308">
         <v>4</v>
@@ -3816,7 +3818,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B309">
         <v>4</v>
@@ -3827,7 +3829,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B310">
         <v>4</v>
@@ -3838,7 +3840,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -3849,7 +3851,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B312">
         <v>3.6666666666666701</v>
@@ -3860,7 +3862,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B313">
         <v>4</v>
@@ -3871,7 +3873,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B314">
         <v>2.1666666666666701</v>
@@ -3882,7 +3884,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B315">
         <v>4</v>
@@ -3893,7 +3895,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B316">
         <v>3.5</v>
@@ -3904,7 +3906,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -3915,7 +3917,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B318">
         <v>5</v>
@@ -3926,7 +3928,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B319">
         <v>5</v>
@@ -3937,7 +3939,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -3948,7 +3950,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B321">
         <v>2.1666666666666701</v>
@@ -3959,7 +3961,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -3970,7 +3972,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B323">
         <v>5</v>
@@ -3981,7 +3983,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B324">
         <v>2.5</v>
@@ -3992,7 +3994,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B325">
         <v>3</v>
@@ -4003,7 +4005,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B326">
         <v>4</v>
@@ -4014,7 +4016,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B327">
         <v>4</v>
@@ -4025,7 +4027,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B328">
         <v>2.3333333333333299</v>
@@ -4036,7 +4038,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -4047,7 +4049,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B330">
         <v>4</v>
@@ -4058,7 +4060,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331">
         <v>4</v>
@@ -4069,7 +4071,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B332">
         <v>3.8571428571428599</v>
@@ -4080,7 +4082,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B333">
         <v>4</v>
@@ -4091,7 +4093,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -4102,7 +4104,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -4113,7 +4115,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -4124,7 +4126,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B337">
         <v>4</v>
@@ -4135,7 +4137,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -4146,7 +4148,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B339">
         <v>4</v>
@@ -4157,7 +4159,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -4168,7 +4170,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -4179,7 +4181,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B342">
         <v>4</v>
@@ -4190,7 +4192,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B343">
         <v>4</v>
@@ -4201,7 +4203,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -4212,7 +4214,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B345">
         <v>3.1428571428571401</v>
@@ -4223,7 +4225,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B346">
         <v>3.1428571428571401</v>
@@ -4234,7 +4236,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -4245,7 +4247,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B348">
         <v>2.28571428571429</v>
@@ -4256,7 +4258,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -4267,7 +4269,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B350">
         <v>4</v>
@@ -4278,7 +4280,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B351">
         <v>4</v>
@@ -4289,7 +4291,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B352">
         <v>4</v>
@@ -4300,7 +4302,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B353">
         <v>4</v>
@@ -4311,7 +4313,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B354">
         <v>4</v>
@@ -4322,7 +4324,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -4333,7 +4335,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B356">
         <v>4</v>
@@ -4344,7 +4346,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B357">
         <v>5</v>
@@ -4355,7 +4357,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B358">
         <v>4</v>
@@ -4366,7 +4368,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B359">
         <v>5</v>
@@ -4377,7 +4379,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B360">
         <v>2</v>
@@ -4388,7 +4390,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B361">
         <v>5</v>
@@ -4399,7 +4401,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -4410,7 +4412,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -4421,7 +4423,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B364">
         <v>4</v>
@@ -4432,7 +4434,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B365">
         <v>5</v>
@@ -4443,7 +4445,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B366">
         <v>5</v>
@@ -4454,7 +4456,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B367">
         <v>4</v>
@@ -4465,7 +4467,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -4476,7 +4478,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B369">
         <v>4</v>
@@ -4487,7 +4489,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B370">
         <v>3</v>
@@ -4498,7 +4500,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B371">
         <v>5</v>
@@ -4509,7 +4511,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B372">
         <v>3.71428571428571</v>
@@ -4520,7 +4522,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B373">
         <v>3.5714285714285698</v>
@@ -4531,7 +4533,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B374">
         <v>5</v>
@@ -4542,7 +4544,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B375">
         <v>4</v>
@@ -4553,7 +4555,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B376">
         <v>5</v>
@@ -4564,7 +4566,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B377">
         <v>3.8571428571428599</v>
@@ -4575,7 +4577,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B378">
         <v>3.8571428571428599</v>
@@ -4586,7 +4588,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B379">
         <v>5</v>
@@ -4597,7 +4599,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B380">
         <v>3.4285714285714302</v>
@@ -4608,7 +4610,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -4619,7 +4621,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -4630,7 +4632,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B383">
         <v>4</v>
@@ -4641,7 +4643,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B384">
         <v>5</v>
@@ -4652,7 +4654,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B385">
         <v>5</v>
@@ -4663,7 +4665,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B386">
         <v>2.4285714285714302</v>
@@ -4674,7 +4676,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B387">
         <v>2.5714285714285698</v>
@@ -4685,7 +4687,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -4696,7 +4698,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B389">
         <v>5</v>
@@ -4707,7 +4709,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B390">
         <v>2.8571428571428599</v>
@@ -4718,7 +4720,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B391">
         <v>3.8571428571428599</v>
@@ -4729,7 +4731,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B392">
         <v>5</v>
@@ -4740,7 +4742,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B393">
         <v>5</v>
@@ -4751,7 +4753,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B394">
         <v>3</v>
@@ -4762,7 +4764,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B395">
         <v>2.71428571428571</v>
@@ -4773,7 +4775,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B396">
         <v>4</v>
@@ -4784,7 +4786,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B397">
         <v>5</v>
@@ -4795,7 +4797,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B398">
         <v>3</v>
@@ -4806,7 +4808,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B399">
         <v>3</v>
@@ -4817,7 +4819,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B400">
         <v>3</v>
@@ -4828,7 +4830,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B401">
         <v>3</v>
@@ -4839,7 +4841,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B402">
         <v>3</v>
@@ -4850,7 +4852,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B403">
         <v>3</v>
@@ -4861,7 +4863,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B404">
         <v>3</v>
@@ -4872,7 +4874,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B405">
         <v>3</v>
@@ -4883,7 +4885,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B406">
         <v>3</v>
@@ -4894,7 +4896,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B407">
         <v>3</v>
@@ -4905,7 +4907,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B408">
         <v>3</v>
@@ -4916,7 +4918,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B409">
         <v>3</v>
@@ -4927,7 +4929,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B410">
         <v>3</v>
@@ -4938,7 +4940,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B411">
         <v>3</v>
@@ -4949,7 +4951,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B412">
         <v>3</v>
@@ -4960,7 +4962,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B413">
         <v>3</v>
@@ -4971,7 +4973,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B414">
         <v>3</v>
@@ -4982,7 +4984,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B415">
         <v>3</v>
@@ -4993,7 +4995,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B416">
         <v>3</v>
@@ -5004,7 +5006,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B417">
         <v>3</v>
@@ -5015,7 +5017,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B418">
         <v>3</v>
@@ -5026,7 +5028,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B419">
         <v>3</v>
@@ -5037,7 +5039,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B420">
         <v>3</v>
@@ -5048,7 +5050,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B421">
         <v>3</v>
@@ -5059,7 +5061,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B422">
         <v>3</v>
@@ -5070,7 +5072,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B423">
         <v>3</v>
@@ -5081,7 +5083,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B424">
         <v>3</v>
@@ -5092,7 +5094,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B425">
         <v>3</v>
@@ -5103,7 +5105,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -5114,7 +5116,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -5125,7 +5127,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B428">
         <v>3</v>
@@ -5136,7 +5138,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B429">
         <v>3</v>
@@ -5147,7 +5149,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B430">
         <v>3</v>
@@ -5158,7 +5160,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -5169,7 +5171,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B432">
         <v>2</v>
@@ -5180,7 +5182,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -5191,7 +5193,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B434">
         <v>1.6666666666666701</v>
@@ -5202,7 +5204,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -5213,7 +5215,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B436">
         <v>3</v>
@@ -5224,7 +5226,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B437">
         <v>3</v>
@@ -5235,7 +5237,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B438">
         <v>3</v>
@@ -5246,7 +5248,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B439">
         <v>3</v>
@@ -5257,7 +5259,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B440">
         <v>3</v>
@@ -5268,7 +5270,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B441">
         <v>3</v>
@@ -5279,7 +5281,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B442">
         <v>3</v>
@@ -5290,7 +5292,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B443">
         <v>3</v>
@@ -5301,7 +5303,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B444">
         <v>3</v>
@@ -5312,7 +5314,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B445">
         <v>3</v>
@@ -5323,7 +5325,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -5334,7 +5336,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B447">
         <v>3</v>
@@ -5345,7 +5347,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B448">
         <v>3</v>
@@ -5356,7 +5358,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B449">
         <v>3</v>
@@ -5367,7 +5369,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B450">
         <v>3</v>
@@ -5378,7 +5380,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B451">
         <v>3</v>
@@ -5389,7 +5391,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B452">
         <v>4</v>
@@ -5400,7 +5402,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B453">
         <v>3</v>
@@ -5411,7 +5413,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B454">
         <v>4</v>
@@ -5422,7 +5424,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B455">
         <v>3</v>
@@ -5433,7 +5435,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B456">
         <v>3</v>
@@ -5444,7 +5446,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B457">
         <v>3</v>
@@ -5455,7 +5457,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B458">
         <v>3</v>
@@ -5466,7 +5468,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B459">
         <v>3</v>
@@ -5477,7 +5479,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B460">
         <v>3</v>
@@ -5488,7 +5490,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B461">
         <v>3</v>
@@ -5499,7 +5501,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B462">
         <v>3</v>
@@ -5510,7 +5512,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -5521,7 +5523,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B464">
         <v>3</v>
@@ -5532,7 +5534,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B465">
         <v>4</v>
@@ -5543,7 +5545,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B466">
         <v>1.6666666666666701</v>
@@ -5554,7 +5556,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B467">
         <v>4</v>
@@ -5565,7 +5567,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B468">
         <v>3</v>
@@ -5576,7 +5578,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B469">
         <v>3</v>
@@ -5587,7 +5589,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B470">
         <v>4</v>
@@ -5598,7 +5600,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B471">
         <v>4</v>
@@ -5609,7 +5611,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B472">
         <v>1.3333333333333299</v>
@@ -5620,7 +5622,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B473">
         <v>2</v>
@@ -5631,7 +5633,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B474">
         <v>2</v>
@@ -5642,7 +5644,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B475">
         <v>4</v>
@@ -5653,7 +5655,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B476">
         <v>1.6666666666666701</v>
@@ -5664,7 +5666,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B477">
         <v>3</v>
@@ -5675,7 +5677,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B478">
         <v>3</v>
@@ -5686,7 +5688,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B479">
         <v>3</v>
@@ -5697,7 +5699,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B480">
         <v>2</v>
@@ -5708,7 +5710,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -5719,7 +5721,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B482">
         <v>3</v>
@@ -5730,7 +5732,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B483">
         <v>4</v>
